--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74585564-AAF0-4889-B624-0F15B337F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA57494-0408-4100-9A37-8DB05669E0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>Current Balance</t>
+  </si>
+  <si>
+    <t>Flyers Under 6</t>
+  </si>
+  <si>
+    <t>Rangers Over 6</t>
+  </si>
+  <si>
+    <t>Flyers Under 6.5</t>
+  </si>
+  <si>
+    <t>Bruins Over 6</t>
+  </si>
+  <si>
+    <t>Canucks</t>
   </si>
 </sst>
 </file>
@@ -308,1364 +323,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Betting Performance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Starting Balance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$O$2:$O$32</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$O$2:$O$22,Sheet1!$O$26:$O$32)</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>45272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45273</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45274</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45279</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45280</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45281</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45282</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45283</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45284</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45286</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45287</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45288</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45289</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45290</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45297</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45298</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$P$2:$P$32</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$P$2:$P$22,Sheet1!$P$26:$P$32)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDB7-4C52-92C4-73C2811FFFD2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Current Balance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$O$2:$O$32</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$O$2:$O$22,Sheet1!$O$26:$O$32)</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>45272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45273</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45274</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45276</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45279</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45280</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45281</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45282</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45283</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45284</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45286</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45287</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45288</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45289</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45290</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45291</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45297</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45298</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$Q$2:$Q$32</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$Q$2:$Q$22,Sheet1!$Q$26:$Q$32)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>251.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>239.62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>257.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>257.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>257.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>257.32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>275.21999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>260.21999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>266.71999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>251.71999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>259.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>259.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>259.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>259.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>271.71999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>271.71999999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>297.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>297.61999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>297.61999999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>297.61999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>297.61999999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>297.61999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>297.61999999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>307.36999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>341.91999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>341.91999999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>354.06999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EDB7-4C52-92C4-73C2811FFFD2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1131922752"/>
-        <c:axId val="945734463"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1131922752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="945734463"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="945734463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1131922752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8864E59A-505C-2FCE-C400-5B0199CB9CD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,7 +739,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.41627999999999998</v>
+        <v>0.66348000000000007</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -2140,7 +797,7 @@
         <v>251.62</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R34" si="3">SUMIF(H2:H126, O3, G2:G126)</f>
+        <f t="shared" ref="R3:R33" si="3">SUMIF(H2:H126, O3, G2:G126)</f>
         <v>1.6199999999999974</v>
       </c>
     </row>
@@ -2231,14 +888,14 @@
         <v>251.62</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O51" si="4">O4+1</f>
+        <f t="shared" ref="O5:O33" si="4">O4+1</f>
         <v>45275</v>
       </c>
       <c r="P5" s="2">
         <v>250</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q51" si="5">Q4+R5</f>
+        <f t="shared" ref="Q5:Q33" si="5">Q4+R5</f>
         <v>257.32</v>
       </c>
       <c r="R5">
@@ -3619,14 +2276,14 @@
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="5"/>
-        <v>354.06999999999994</v>
+        <v>339.06999999999994</v>
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
-        <v>12.150000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>-2.8499999999999979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3661,11 +2318,23 @@
         <f t="shared" si="2"/>
         <v>317.62</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O33" s="1">
+        <f t="shared" si="4"/>
+        <v>45303</v>
+      </c>
+      <c r="P33" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="5"/>
+        <v>415.86999999999995</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3704,7 +2373,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3743,7 +2412,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3782,7 +2451,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -3821,7 +2490,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3860,7 +2529,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3899,7 +2568,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3938,7 +2607,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -3976,7 +2645,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -3998,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G51" si="10">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G58" si="10">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -4015,7 +2684,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4048,7 +2717,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4081,7 +2750,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -4114,7 +2783,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4147,7 +2816,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -4180,7 +2849,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -4307,12 +2976,218 @@
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>1.9</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="10"/>
+        <v>-15</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45302</v>
+      </c>
+      <c r="J52">
+        <v>250</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" ref="K52:K58" si="14">K51+G52</f>
+        <v>339.07</v>
+      </c>
       <c r="O52" s="1"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>-15</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J53">
+        <v>250</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="14"/>
+        <v>324.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1.8</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J54">
+        <v>250</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="14"/>
+        <v>348.07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1.9</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="10"/>
+        <v>13.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J55">
+        <v>250</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="14"/>
+        <v>361.57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J56">
+        <v>250</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="14"/>
+        <v>379.57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="H57" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J57">
+        <v>250</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="14"/>
+        <v>394.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>1.71</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="10"/>
+        <v>21.299999999999997</v>
+      </c>
+      <c r="H58" s="1">
+        <v>45303</v>
+      </c>
+      <c r="J58">
+        <v>250</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="14"/>
+        <v>415.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>2.7</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="K59" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA57494-0408-4100-9A37-8DB05669E0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C0284-A34D-4036-9D8B-4A1A47763F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,15 +3175,6 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59">
-        <v>2.7</v>
-      </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
       <c r="H59" s="1"/>
       <c r="K59" s="6"/>
     </row>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C0284-A34D-4036-9D8B-4A1A47763F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727A0CF-0960-4C11-BFCA-648B62418777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,11 +2276,11 @@
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="5"/>
-        <v>339.06999999999994</v>
+        <v>354.06999999999994</v>
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
-        <v>-2.8499999999999979</v>
+        <v>12.150000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2327,11 +2327,11 @@
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="5"/>
-        <v>415.86999999999995</v>
+        <v>339.06999999999994</v>
       </c>
       <c r="R33">
         <f t="shared" si="3"/>
-        <v>76.8</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -2369,9 +2369,20 @@
         <f t="shared" si="2"/>
         <v>307.62</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="O34" s="1">
+        <v>45304</v>
+      </c>
+      <c r="P34" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" ref="Q34" si="10">Q33+R34</f>
+        <v>415.86999999999995</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34" si="11">SUMIF(H33:H157, O34, G33:G157)</f>
+        <v>76.8</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -2667,7 +2678,7 @@
         <v>17</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G58" si="10">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G58" si="12">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2700,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2710,7 +2721,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="11">K42+G43</f>
+        <f t="shared" ref="K43" si="13">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2733,7 +2744,7 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2743,7 +2754,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="12">K43+G44</f>
+        <f t="shared" ref="K44" si="14">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2766,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="G45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2776,7 +2787,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="13">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="15">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -2799,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -2809,7 +2820,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -2832,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="G47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -2842,7 +2853,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -2865,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="G48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -2875,7 +2886,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -2896,7 +2907,7 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -2906,7 +2917,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -2927,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -2937,7 +2948,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -2958,7 +2969,7 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -2968,7 +2979,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -2989,17 +3000,17 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="J52">
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K58" si="14">K51+G52</f>
+        <f t="shared" ref="K52:K58" si="16">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3020,17 +3031,17 @@
         <v>11</v>
       </c>
       <c r="G53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="J53">
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3048,17 +3059,17 @@
         <v>17</v>
       </c>
       <c r="G54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="J54">
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3076,17 +3087,17 @@
         <v>17</v>
       </c>
       <c r="G55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="J55">
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3104,17 +3115,17 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="J56">
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3132,17 +3143,17 @@
         <v>17</v>
       </c>
       <c r="G57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="J57">
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3160,17 +3171,17 @@
         <v>17</v>
       </c>
       <c r="G58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="J58">
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>415.87</v>
       </c>
     </row>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727A0CF-0960-4C11-BFCA-648B62418777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC4E309-EB07-445F-8F76-5D3FCFE25BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.66348000000000007</v>
+        <v>0.76547999999999994</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -2419,9 +2419,20 @@
         <f t="shared" si="2"/>
         <v>297.62</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="O35" s="1">
+        <v>45305</v>
+      </c>
+      <c r="P35" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" ref="Q35" si="12">Q34+R35</f>
+        <v>441.36999999999995</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35" si="13">SUMIF(H34:H158, O35, G34:G158)</f>
+        <v>25.5</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -2678,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G58" si="12">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G59" si="14">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2711,7 +2722,7 @@
         <v>11</v>
       </c>
       <c r="G43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2721,7 +2732,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="13">K42+G43</f>
+        <f t="shared" ref="K43" si="15">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2744,7 +2755,7 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2754,7 +2765,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="14">K43+G44</f>
+        <f t="shared" ref="K44" si="16">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2777,7 +2788,7 @@
         <v>17</v>
       </c>
       <c r="G45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2787,7 +2798,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="15">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="17">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -2810,7 +2821,7 @@
         <v>11</v>
       </c>
       <c r="G46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -2820,7 +2831,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -2843,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="G47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -2853,7 +2864,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -2876,7 +2887,7 @@
         <v>17</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -2886,7 +2897,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -2907,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -2917,7 +2928,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -2938,7 +2949,7 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -2948,7 +2959,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -2969,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -2979,7 +2990,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3000,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
@@ -3010,7 +3021,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K58" si="16">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="18">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3031,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="G53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
@@ -3041,7 +3052,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3059,7 +3070,7 @@
         <v>17</v>
       </c>
       <c r="G54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
@@ -3069,7 +3080,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3087,7 +3098,7 @@
         <v>17</v>
       </c>
       <c r="G55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
@@ -3097,7 +3108,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3115,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
@@ -3125,7 +3136,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3143,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="G57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
@@ -3153,7 +3164,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3171,7 +3182,7 @@
         <v>17</v>
       </c>
       <c r="G58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
@@ -3181,13 +3192,37 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>415.87</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H59" s="1"/>
-      <c r="K59" s="6"/>
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>2.7</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="14"/>
+        <v>25.5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>45305</v>
+      </c>
+      <c r="J59">
+        <v>250</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="18"/>
+        <v>441.37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC4E309-EB07-445F-8F76-5D3FCFE25BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30913823-0622-4BBD-90A6-06A3A4E7CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Canucks</t>
+  </si>
+  <si>
+    <t>Kraken Under 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devils </t>
+  </si>
+  <si>
+    <t>Panthers under 6.5</t>
   </si>
 </sst>
 </file>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +748,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.76547999999999994</v>
+        <v>0.56547999999999998</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -2469,9 +2478,20 @@
         <f t="shared" si="2"/>
         <v>302.37</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="O36" s="1">
+        <v>45306</v>
+      </c>
+      <c r="P36" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" ref="Q36" si="14">Q35+R36</f>
+        <v>391.36999999999995</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36" si="15">SUMIF(H35:H159, O36, G35:G159)</f>
+        <v>-50</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2689,7 +2709,7 @@
         <v>17</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G59" si="14">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G64" si="16">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2722,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="G43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2732,7 +2752,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="15">K42+G43</f>
+        <f t="shared" ref="K43" si="17">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2755,7 +2775,7 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2765,7 +2785,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="16">K43+G44</f>
+        <f t="shared" ref="K44" si="18">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2788,7 +2808,7 @@
         <v>17</v>
       </c>
       <c r="G45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2798,7 +2818,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="17">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="19">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -2821,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="G46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -2831,7 +2851,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -2854,7 +2874,7 @@
         <v>17</v>
       </c>
       <c r="G47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -2864,7 +2884,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -2887,7 +2907,7 @@
         <v>17</v>
       </c>
       <c r="G48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -2897,7 +2917,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -2918,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -2928,7 +2948,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -2949,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -2959,7 +2979,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -2980,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -2990,7 +3010,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3011,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
@@ -3021,7 +3041,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="18">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="20">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3042,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="G53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
@@ -3052,7 +3072,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3070,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="G54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
@@ -3080,7 +3100,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3098,7 +3118,7 @@
         <v>17</v>
       </c>
       <c r="G55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
@@ -3108,7 +3128,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3126,7 +3146,7 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
@@ -3136,7 +3156,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3154,7 +3174,7 @@
         <v>17</v>
       </c>
       <c r="G57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
@@ -3164,7 +3184,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3182,7 +3202,7 @@
         <v>17</v>
       </c>
       <c r="G58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
@@ -3192,7 +3212,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>415.87</v>
       </c>
     </row>
@@ -3210,7 +3230,7 @@
         <v>17</v>
       </c>
       <c r="G59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25.5</v>
       </c>
       <c r="H59" s="1">
@@ -3220,8 +3240,147 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>441.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J60">
+        <v>250</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" ref="K60:K64" si="21">K59+G60</f>
+        <v>441.37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="H61" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J61">
+        <v>250</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="21"/>
+        <v>461.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62">
+        <v>2.25</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="H62" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J62">
+        <v>250</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="21"/>
+        <v>441.37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="H63" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J63">
+        <v>250</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="21"/>
+        <v>421.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="16"/>
+        <v>-30</v>
+      </c>
+      <c r="H64" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J64">
+        <v>250</v>
+      </c>
+      <c r="K64" s="6">
+        <f t="shared" si="21"/>
+        <v>391.37</v>
       </c>
     </row>
   </sheetData>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30913823-0622-4BBD-90A6-06A3A4E7CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F7C6B-CA77-443D-8DAB-BAF741A8FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>Panthers under 6.5</t>
+  </si>
+  <si>
+    <t>Colorado Over 6.5</t>
+  </si>
+  <si>
+    <t>Colorado and Over</t>
+  </si>
+  <si>
+    <t>Ranger over 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oilers  </t>
   </si>
 </sst>
 </file>
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +760,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.56547999999999998</v>
+        <v>0.83204000000000011</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -2528,9 +2540,20 @@
         <f t="shared" si="2"/>
         <v>307.37</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="O37" s="1">
+        <v>45307</v>
+      </c>
+      <c r="P37" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" ref="Q37" si="16">Q36+R37</f>
+        <v>458.00999999999993</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37" si="17">SUMIF(H36:H160, O37, G36:G160)</f>
+        <v>66.639999999999986</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -2709,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G64" si="16">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G70" si="18">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2742,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="G43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2752,7 +2775,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="17">K42+G43</f>
+        <f t="shared" ref="K43" si="19">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2775,7 +2798,7 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2785,7 +2808,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="18">K43+G44</f>
+        <f t="shared" ref="K44" si="20">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2808,7 +2831,7 @@
         <v>17</v>
       </c>
       <c r="G45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2818,7 +2841,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="19">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="21">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -2841,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="G46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -2851,7 +2874,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -2874,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="G47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -2884,7 +2907,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -2907,7 +2930,7 @@
         <v>17</v>
       </c>
       <c r="G48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -2917,7 +2940,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -2938,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="G49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -2948,7 +2971,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -2969,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -2979,7 +3002,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -3000,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="G51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -3010,7 +3033,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3031,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
@@ -3041,7 +3064,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="20">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="22">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3062,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="G53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
@@ -3072,7 +3095,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3090,7 +3113,7 @@
         <v>17</v>
       </c>
       <c r="G54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
@@ -3100,7 +3123,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3118,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="G55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
@@ -3128,7 +3151,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3146,7 +3169,7 @@
         <v>17</v>
       </c>
       <c r="G56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
@@ -3156,7 +3179,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3174,7 +3197,7 @@
         <v>17</v>
       </c>
       <c r="G57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
@@ -3184,7 +3207,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3202,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="G58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
@@ -3212,7 +3235,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>415.87</v>
       </c>
     </row>
@@ -3230,7 +3253,7 @@
         <v>17</v>
       </c>
       <c r="G59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.5</v>
       </c>
       <c r="H59" s="1">
@@ -3240,7 +3263,7 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3267,7 +3290,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="21">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="23">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3285,7 +3308,7 @@
         <v>17</v>
       </c>
       <c r="G61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H61" s="1">
@@ -3295,7 +3318,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3313,7 +3336,7 @@
         <v>11</v>
       </c>
       <c r="G62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-20</v>
       </c>
       <c r="H62" s="1">
@@ -3323,7 +3346,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3341,7 +3364,7 @@
         <v>11</v>
       </c>
       <c r="G63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-20</v>
       </c>
       <c r="H63" s="1">
@@ -3351,7 +3374,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3369,7 +3392,7 @@
         <v>11</v>
       </c>
       <c r="G64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-30</v>
       </c>
       <c r="H64" s="1">
@@ -3379,8 +3402,176 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>391.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>1.69</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="18"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="H65" s="1">
+        <v>45307</v>
+      </c>
+      <c r="J65">
+        <v>250</v>
+      </c>
+      <c r="K65" s="6">
+        <f t="shared" ref="K65:K70" si="24">K64+G65</f>
+        <v>405.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>1.76</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="18"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="H66" s="1">
+        <v>45307</v>
+      </c>
+      <c r="J66">
+        <v>250</v>
+      </c>
+      <c r="K66" s="6">
+        <f t="shared" si="24"/>
+        <v>412.77000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>1.74</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="18"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="H67" s="1">
+        <v>45307</v>
+      </c>
+      <c r="J67">
+        <v>250</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="24"/>
+        <v>420.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="18"/>
+        <v>41.239999999999995</v>
+      </c>
+      <c r="H68" s="1">
+        <v>45307</v>
+      </c>
+      <c r="J68">
+        <v>250</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="24"/>
+        <v>461.41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="18"/>
+        <v>-20</v>
+      </c>
+      <c r="H69" s="1">
+        <v>45307</v>
+      </c>
+      <c r="J69">
+        <v>250</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" si="24"/>
+        <v>441.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <v>1.83</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="18"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H70" s="1">
+        <v>45307</v>
+      </c>
+      <c r="J70">
+        <v>250</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="24"/>
+        <v>458.01000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F7C6B-CA77-443D-8DAB-BAF741A8FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6301F6F-B2BE-4449-895D-DFC13DAD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Team </t>
-  </si>
-  <si>
     <t>Rangers</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oilers  </t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,60 +669,60 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1">
         <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1.95</v>
@@ -739,7 +739,7 @@
         <v>#REF!</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G40" si="1">IF(F2="Y",(C2*B2)-C2,-C2)</f>
@@ -749,7 +749,7 @@
         <v>45273</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>250</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1.452</v>
@@ -791,7 +791,7 @@
         <v>#REF!</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1.66</v>
@@ -841,7 +841,7 @@
         <v>#REF!</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -875,7 +875,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1.55</v>
@@ -892,7 +892,7 @@
         <v>#REF!</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -926,7 +926,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>#REF!</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>3.3</v>
@@ -994,7 +994,7 @@
         <v>#REF!</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1.86</v>
@@ -1045,7 +1045,7 @@
         <v>#REF!</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2.3199999999999998</v>
@@ -1096,7 +1096,7 @@
         <v>#REF!</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -1106,7 +1106,7 @@
         <v>45274</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>250</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1.47</v>
@@ -1150,7 +1150,7 @@
         <v>#REF!</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2.5</v>
@@ -1201,7 +1201,7 @@
         <v>#REF!</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>1.52</v>
@@ -1252,7 +1252,7 @@
         <v>#REF!</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>1.42</v>
@@ -1303,7 +1303,7 @@
         <v>#REF!</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1354,7 +1354,7 @@
         <v>#REF!</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>2.4500000000000002</v>
@@ -1405,7 +1405,7 @@
         <v>#REF!</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>1.91</v>
@@ -1456,7 +1456,7 @@
         <v>#REF!</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>2.15</v>
@@ -1507,7 +1507,7 @@
         <v>#REF!</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2.4</v>
@@ -1558,7 +1558,7 @@
         <v>#REF!</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>2.1</v>
@@ -1609,7 +1609,7 @@
         <v>#REF!</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>#REF!</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1.8</v>
@@ -1711,7 +1711,7 @@
         <v>#REF!</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2.1</v>
@@ -1762,7 +1762,7 @@
         <v>#REF!</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1.76</v>
@@ -1813,7 +1813,7 @@
         <v>#REF!</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1.6</v>
@@ -1864,7 +1864,7 @@
         <v>#REF!</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1.66</v>
@@ -1915,7 +1915,7 @@
         <v>#REF!</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>2.5499999999999998</v>
@@ -1966,7 +1966,7 @@
         <v>#REF!</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>1.71</v>
@@ -2017,7 +2017,7 @@
         <v>#REF!</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1.75</v>
@@ -2068,7 +2068,7 @@
         <v>#REF!</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
         <v>2.0499999999999998</v>
@@ -2119,7 +2119,7 @@
         <v>#REF!</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>1.66</v>
@@ -2170,7 +2170,7 @@
         <v>#REF!</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1.86</v>
@@ -2221,7 +2221,7 @@
         <v>#REF!</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>1.55</v>
@@ -2272,7 +2272,7 @@
         <v>#REF!</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2323,7 +2323,7 @@
         <v>#REF!</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>2.7</v>
@@ -2374,7 +2374,7 @@
         <v>#REF!</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>2.35</v>
@@ -2424,7 +2424,7 @@
         <v>#REF!</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1.95</v>
@@ -2474,7 +2474,7 @@
         <v>#REF!</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2524,7 +2524,7 @@
         <v>#REF!</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>1.83</v>
@@ -2574,7 +2574,7 @@
         <v>#REF!</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2613,7 +2613,7 @@
         <v>#REF!</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2652,7 +2652,7 @@
         <v>#REF!</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>1.87</v>
@@ -2691,7 +2691,7 @@
         <v>#REF!</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>1.625</v>
@@ -2729,7 +2729,7 @@
         <v>#REF!</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G70" si="18">IF(F42="Y",(C42*B42)-C42,-C42)</f>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>2.5</v>
@@ -2762,7 +2762,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <f t="shared" si="18"/>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2795,7 +2795,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44">
         <f t="shared" si="18"/>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>1.87</v>
@@ -2828,7 +2828,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45">
         <f t="shared" si="18"/>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>2.2000000000000002</v>
@@ -2861,7 +2861,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <f t="shared" si="18"/>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>1.8</v>
@@ -2894,7 +2894,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47">
         <f t="shared" si="18"/>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>1.86</v>
@@ -2927,7 +2927,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48">
         <f t="shared" si="18"/>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>1.9</v>
@@ -2958,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <f t="shared" si="18"/>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>2.0499999999999998</v>
@@ -2989,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50">
         <f t="shared" si="18"/>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>2.0499999999999998</v>
@@ -3020,7 +3020,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <f t="shared" si="18"/>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>1.9</v>
@@ -3051,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <f t="shared" si="18"/>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3082,7 +3082,7 @@
         <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <f t="shared" si="18"/>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>1.8</v>
@@ -3110,7 +3110,7 @@
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54">
         <f t="shared" si="18"/>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1.9</v>
@@ -3138,7 +3138,7 @@
         <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55">
         <f t="shared" si="18"/>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>2.2000000000000002</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56">
         <f t="shared" si="18"/>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57">
         <f t="shared" si="18"/>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1.71</v>
@@ -3222,7 +3222,7 @@
         <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <f t="shared" si="18"/>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>2.7</v>
@@ -3250,7 +3250,7 @@
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59">
         <f t="shared" si="18"/>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3305,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61">
         <f t="shared" si="18"/>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <v>2.25</v>
@@ -3333,7 +3333,7 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <f t="shared" si="18"/>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>2.5499999999999998</v>
@@ -3361,7 +3361,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <f t="shared" si="18"/>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3389,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <f t="shared" si="18"/>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1.69</v>
@@ -3417,7 +3417,7 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G65">
         <f t="shared" si="18"/>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>1.76</v>
@@ -3445,7 +3445,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66">
         <f t="shared" si="18"/>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67">
         <v>1.74</v>
@@ -3473,7 +3473,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <f t="shared" si="18"/>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>3.0619999999999998</v>
@@ -3501,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68">
         <f t="shared" si="18"/>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69">
         <v>2.4500000000000002</v>
@@ -3529,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <f t="shared" si="18"/>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70">
         <v>1.83</v>
@@ -3557,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70">
         <f t="shared" si="18"/>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6301F6F-B2BE-4449-895D-DFC13DAD8A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9163A6A6-0C2F-4920-9320-507F260DEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -231,15 +231,9 @@
     <t>Bruins Over 6</t>
   </si>
   <si>
-    <t>Canucks</t>
-  </si>
-  <si>
     <t>Kraken Under 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Devils </t>
-  </si>
-  <si>
     <t>Panthers under 6.5</t>
   </si>
   <si>
@@ -252,10 +246,28 @@
     <t>Ranger over 5.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Oilers  </t>
-  </si>
-  <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Coyotes ML</t>
+  </si>
+  <si>
+    <t>Colorado ML</t>
+  </si>
+  <si>
+    <t>Oilers ML</t>
+  </si>
+  <si>
+    <t>Devils ML</t>
+  </si>
+  <si>
+    <t>Kraken ML</t>
+  </si>
+  <si>
+    <t>Detroit ML</t>
+  </si>
+  <si>
+    <t>Canucks ML</t>
   </si>
 </sst>
 </file>
@@ -646,7 +658,7 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -3213,7 +3225,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B58">
         <v>1.71</v>
@@ -3241,7 +3253,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>2.7</v>
@@ -3296,7 +3308,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3324,7 +3336,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>2.25</v>
@@ -3352,7 +3364,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>2.5499999999999998</v>
@@ -3380,7 +3392,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3408,7 +3420,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1.69</v>
@@ -3436,7 +3448,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66">
         <v>1.76</v>
@@ -3464,7 +3476,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>1.74</v>
@@ -3492,7 +3504,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>3.0619999999999998</v>
@@ -3520,7 +3532,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>2.4500000000000002</v>
@@ -3548,7 +3560,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B70">
         <v>1.83</v>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9163A6A6-0C2F-4920-9320-507F260DEB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BA85F-E6BC-4DA2-BE0F-16C749A876E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>Canucks ML</t>
+  </si>
+  <si>
+    <t>Chicago Under 6.5</t>
+  </si>
+  <si>
+    <t>Canucks Over 6.5</t>
+  </si>
+  <si>
+    <t>Toronto Over 6.5</t>
+  </si>
+  <si>
+    <t>Vegas Over 5.5</t>
   </si>
 </sst>
 </file>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +784,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.83204000000000011</v>
+        <v>0.98084000000000016</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -2559,11 +2571,11 @@
         <v>250</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" ref="Q37" si="16">Q36+R37</f>
+        <f t="shared" ref="Q37:Q39" si="16">Q36+R37</f>
         <v>458.00999999999993</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37" si="17">SUMIF(H36:H160, O37, G36:G160)</f>
+        <f t="shared" ref="R37:R39" si="17">SUMIF(H36:H160, O37, G36:G160)</f>
         <v>66.639999999999986</v>
       </c>
     </row>
@@ -2602,9 +2614,20 @@
         <f t="shared" si="2"/>
         <v>315.67</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="O38" s="1">
+        <v>45308</v>
+      </c>
+      <c r="P38" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="16"/>
+        <v>458.00999999999993</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -2641,9 +2664,20 @@
         <f t="shared" si="2"/>
         <v>325.67</v>
       </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="O39" s="1">
+        <v>45309</v>
+      </c>
+      <c r="P39" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="16"/>
+        <v>495.20999999999992</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="17"/>
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -2744,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G70" si="18">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G75" si="18">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -3584,6 +3618,146 @@
       <c r="K70" s="6">
         <f t="shared" si="24"/>
         <v>458.01000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1.77</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="18"/>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="H71" s="1">
+        <v>45309</v>
+      </c>
+      <c r="J71">
+        <v>250</v>
+      </c>
+      <c r="K71" s="6">
+        <f t="shared" ref="K71:K75" si="25">K70+G71</f>
+        <v>473.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="H72" s="1">
+        <v>45309</v>
+      </c>
+      <c r="J72">
+        <v>250</v>
+      </c>
+      <c r="K72" s="6">
+        <f t="shared" si="25"/>
+        <v>443.41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1.83</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="18"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H73" s="1">
+        <v>45309</v>
+      </c>
+      <c r="J73">
+        <v>250</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="25"/>
+        <v>460.01000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>1.76</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="18"/>
+        <v>15.200000000000003</v>
+      </c>
+      <c r="H74" s="1">
+        <v>45309</v>
+      </c>
+      <c r="J74">
+        <v>250</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" si="25"/>
+        <v>475.21000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1.8</v>
+      </c>
+      <c r="C75">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="H75" s="1">
+        <v>45309</v>
+      </c>
+      <c r="J75">
+        <v>250</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="25"/>
+        <v>495.21000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BA85F-E6BC-4DA2-BE0F-16C749A876E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8317A1-FA55-4067-B574-C5578B64F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>Vegas Over 5.5</t>
+  </si>
+  <si>
+    <t>Colorado Under 6</t>
+  </si>
+  <si>
+    <t>Oilers Over 7</t>
+  </si>
+  <si>
+    <t>Tampa ML</t>
+  </si>
+  <si>
+    <t>Flordia ML</t>
+  </si>
+  <si>
+    <t>RedWings Over 6.5</t>
   </si>
 </sst>
 </file>
@@ -667,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +706,7 @@
     <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -744,7 +759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -784,7 +799,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.98084000000000016</v>
+        <v>0.82084000000000024</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -795,8 +810,17 @@
       <c r="Q2">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -845,8 +869,17 @@
         <f t="shared" ref="R3:R33" si="3">SUMIF(H2:H126, O3, G2:G126)</f>
         <v>1.6199999999999974</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -896,8 +929,17 @@
         <f t="shared" si="3"/>
         <v>-12</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -947,8 +989,17 @@
         <f t="shared" si="3"/>
         <v>17.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5">
+        <v>1.66</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -998,8 +1049,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1049,8 +1109,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7">
+        <v>1.83</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1224,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1275,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1326,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +1377,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1428,7 @@
         <v>7.3999999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1410,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2714,9 +2783,20 @@
         <f t="shared" si="2"/>
         <v>335.67</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="O40" s="1">
+        <v>45310</v>
+      </c>
+      <c r="P40" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" ref="Q40" si="18">Q39+R40</f>
+        <v>455.20999999999992</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R40" si="19">SUMIF(H39:H163, O40, G39:G163)</f>
+        <v>-40</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -2778,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G75" si="18">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G77" si="20">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2811,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2821,7 +2901,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="19">K42+G43</f>
+        <f t="shared" ref="K43" si="21">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2844,7 +2924,7 @@
         <v>16</v>
       </c>
       <c r="G44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2854,7 +2934,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="20">K43+G44</f>
+        <f t="shared" ref="K44" si="22">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2877,7 +2957,7 @@
         <v>16</v>
       </c>
       <c r="G45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2887,7 +2967,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="21">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="23">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -2910,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -2920,7 +3000,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -2943,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="G47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -2953,7 +3033,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -2976,7 +3056,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -2986,7 +3066,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -3007,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="G49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -3017,7 +3097,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -3038,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="G50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -3048,7 +3128,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -3069,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="G51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -3079,7 +3159,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3100,7 +3180,7 @@
         <v>10</v>
       </c>
       <c r="G52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
@@ -3110,7 +3190,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="22">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="24">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3131,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="G53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
@@ -3141,7 +3221,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3159,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="G54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
@@ -3169,7 +3249,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3187,7 +3267,7 @@
         <v>16</v>
       </c>
       <c r="G55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
@@ -3197,7 +3277,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3215,7 +3295,7 @@
         <v>16</v>
       </c>
       <c r="G56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
@@ -3225,7 +3305,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3243,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="G57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
@@ -3253,7 +3333,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3271,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
@@ -3281,7 +3361,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>415.87</v>
       </c>
     </row>
@@ -3299,7 +3379,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25.5</v>
       </c>
       <c r="H59" s="1">
@@ -3309,7 +3389,7 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3336,7 +3416,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="23">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="25">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3354,7 +3434,7 @@
         <v>16</v>
       </c>
       <c r="G61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H61" s="1">
@@ -3364,7 +3444,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3382,7 +3462,7 @@
         <v>10</v>
       </c>
       <c r="G62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-20</v>
       </c>
       <c r="H62" s="1">
@@ -3392,7 +3472,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3410,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="G63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-20</v>
       </c>
       <c r="H63" s="1">
@@ -3420,7 +3500,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3438,7 +3518,7 @@
         <v>10</v>
       </c>
       <c r="G64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-30</v>
       </c>
       <c r="H64" s="1">
@@ -3448,7 +3528,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3466,7 +3546,7 @@
         <v>16</v>
       </c>
       <c r="G65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>13.799999999999997</v>
       </c>
       <c r="H65" s="1">
@@ -3476,7 +3556,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="24">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="26">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3494,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="G66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.6000000000000014</v>
       </c>
       <c r="H66" s="1">
@@ -3504,7 +3584,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3522,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="G67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.3999999999999986</v>
       </c>
       <c r="H67" s="1">
@@ -3532,7 +3612,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3550,7 +3630,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>41.239999999999995</v>
       </c>
       <c r="H68" s="1">
@@ -3560,7 +3640,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3578,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="G69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-20</v>
       </c>
       <c r="H69" s="1">
@@ -3588,7 +3668,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3606,7 +3686,7 @@
         <v>16</v>
       </c>
       <c r="G70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H70" s="1">
@@ -3616,7 +3696,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -3634,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="G71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15.399999999999999</v>
       </c>
       <c r="H71" s="1">
@@ -3644,7 +3724,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K75" si="25">K70+G71</f>
+        <f t="shared" ref="K71:K75" si="27">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -3662,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="G72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-30</v>
       </c>
       <c r="H72" s="1">
@@ -3672,7 +3752,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>443.41</v>
       </c>
     </row>
@@ -3690,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H73" s="1">
@@ -3700,7 +3780,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -3718,7 +3798,7 @@
         <v>16</v>
       </c>
       <c r="G74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15.200000000000003</v>
       </c>
       <c r="H74" s="1">
@@ -3728,7 +3808,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3746,7 +3826,7 @@
         <v>16</v>
       </c>
       <c r="G75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H75" s="1">
@@ -3756,8 +3836,64 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>495.21000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>1.54</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="20"/>
+        <v>-20</v>
+      </c>
+      <c r="H76" s="1">
+        <v>45310</v>
+      </c>
+      <c r="J76">
+        <v>250</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="shared" ref="K76:K77" si="28">K75+G76</f>
+        <v>475.21000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="20"/>
+        <v>-20</v>
+      </c>
+      <c r="H77" s="1">
+        <v>45310</v>
+      </c>
+      <c r="J77">
+        <v>250</v>
+      </c>
+      <c r="K77" s="6">
+        <f t="shared" si="28"/>
+        <v>455.21000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8317A1-FA55-4067-B574-C5578B64F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED82AA9-5A9D-4C46-9D8C-44AD880A0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +704,7 @@
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED82AA9-5A9D-4C46-9D8C-44AD880A0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139FF63-8BBD-4BD7-A15E-151F31D0EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>RedWings Over 6.5</t>
+  </si>
+  <si>
+    <t>Celtics Under 229</t>
+  </si>
+  <si>
+    <t>Rangers ML</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +710,8 @@
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -800,7 +807,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.82084000000000024</v>
+        <v>0.79044000000000025</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -810,12 +817,6 @@
       </c>
       <c r="Q2">
         <v>250</v>
-      </c>
-      <c r="T2" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2">
-        <v>1.8</v>
       </c>
       <c r="AA2" s="1">
         <v>45311</v>
@@ -871,10 +872,13 @@
         <v>1.6199999999999974</v>
       </c>
       <c r="T3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.9</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
       </c>
       <c r="AA3" s="1">
         <v>45311</v>
@@ -931,10 +935,13 @@
         <v>-12</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.43</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
       </c>
       <c r="AA4" s="1">
         <v>45311</v>
@@ -991,10 +998,13 @@
         <v>17.7</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U5">
-        <v>1.66</v>
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
       </c>
       <c r="AA5" s="1">
         <v>45311</v>
@@ -1051,10 +1061,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="U6">
-        <v>2.0499999999999998</v>
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>1.91</v>
       </c>
       <c r="AA6" s="1">
         <v>45311</v>
@@ -1110,12 +1123,6 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7">
-        <v>1.83</v>
-      </c>
       <c r="AA7" s="1">
         <v>45311</v>
       </c>
@@ -2833,9 +2840,20 @@
         <f t="shared" si="2"/>
         <v>335.67</v>
       </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="O41" s="1">
+        <v>45311</v>
+      </c>
+      <c r="P41" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" ref="Q41" si="20">Q40+R41</f>
+        <v>447.6099999999999</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41" si="21">SUMIF(H40:H164, O41, G40:G164)</f>
+        <v>-7.6000000000000014</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -2859,7 +2877,7 @@
         <v>16</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G77" si="20">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G83" si="22">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2892,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2902,7 +2920,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="21">K42+G43</f>
+        <f t="shared" ref="K43" si="23">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2925,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="G44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2935,7 +2953,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="22">K43+G44</f>
+        <f t="shared" ref="K44" si="24">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2958,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="G45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2968,7 +2986,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="23">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="25">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -2991,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -3001,7 +3019,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -3024,7 +3042,7 @@
         <v>16</v>
       </c>
       <c r="G47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -3034,7 +3052,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -3057,7 +3075,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -3067,7 +3085,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -3088,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="G49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -3098,7 +3116,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -3119,7 +3137,7 @@
         <v>16</v>
       </c>
       <c r="G50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -3129,7 +3147,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -3150,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="G51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -3160,7 +3178,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3181,7 +3199,7 @@
         <v>10</v>
       </c>
       <c r="G52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
@@ -3191,7 +3209,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="24">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="26">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3212,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="G53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
@@ -3222,7 +3240,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3240,7 +3258,7 @@
         <v>16</v>
       </c>
       <c r="G54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
@@ -3250,7 +3268,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3268,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="G55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
@@ -3278,7 +3296,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3296,7 +3314,7 @@
         <v>16</v>
       </c>
       <c r="G56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
@@ -3306,7 +3324,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3324,7 +3342,7 @@
         <v>16</v>
       </c>
       <c r="G57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
@@ -3334,7 +3352,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3352,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
@@ -3362,7 +3380,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>415.87</v>
       </c>
     </row>
@@ -3380,7 +3398,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25.5</v>
       </c>
       <c r="H59" s="1">
@@ -3390,7 +3408,7 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3417,7 +3435,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="25">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="27">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3435,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="G61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H61" s="1">
@@ -3445,7 +3463,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3463,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="G62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-20</v>
       </c>
       <c r="H62" s="1">
@@ -3473,7 +3491,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3491,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="G63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-20</v>
       </c>
       <c r="H63" s="1">
@@ -3501,7 +3519,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3519,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="G64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-30</v>
       </c>
       <c r="H64" s="1">
@@ -3529,7 +3547,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3547,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="G65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13.799999999999997</v>
       </c>
       <c r="H65" s="1">
@@ -3557,7 +3575,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="26">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="28">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3575,7 +3593,7 @@
         <v>16</v>
       </c>
       <c r="G66">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.6000000000000014</v>
       </c>
       <c r="H66" s="1">
@@ -3585,7 +3603,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3603,7 +3621,7 @@
         <v>16</v>
       </c>
       <c r="G67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.3999999999999986</v>
       </c>
       <c r="H67" s="1">
@@ -3613,7 +3631,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3631,7 +3649,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41.239999999999995</v>
       </c>
       <c r="H68" s="1">
@@ -3641,7 +3659,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3659,7 +3677,7 @@
         <v>10</v>
       </c>
       <c r="G69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-20</v>
       </c>
       <c r="H69" s="1">
@@ -3669,7 +3687,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3687,7 +3705,7 @@
         <v>16</v>
       </c>
       <c r="G70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H70" s="1">
@@ -3697,7 +3715,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -3715,7 +3733,7 @@
         <v>16</v>
       </c>
       <c r="G71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15.399999999999999</v>
       </c>
       <c r="H71" s="1">
@@ -3725,7 +3743,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K75" si="27">K70+G71</f>
+        <f t="shared" ref="K71:K75" si="29">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -3743,7 +3761,7 @@
         <v>10</v>
       </c>
       <c r="G72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-30</v>
       </c>
       <c r="H72" s="1">
@@ -3753,7 +3771,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>443.41</v>
       </c>
     </row>
@@ -3771,7 +3789,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H73" s="1">
@@ -3781,7 +3799,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -3799,7 +3817,7 @@
         <v>16</v>
       </c>
       <c r="G74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15.200000000000003</v>
       </c>
       <c r="H74" s="1">
@@ -3809,7 +3827,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3827,7 +3845,7 @@
         <v>16</v>
       </c>
       <c r="G75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H75" s="1">
@@ -3837,7 +3855,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -3855,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="G76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-20</v>
       </c>
       <c r="H76" s="1">
@@ -3865,7 +3883,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" ref="K76:K77" si="28">K75+G76</f>
+        <f t="shared" ref="K76:K77" si="30">K75+G76</f>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3883,7 +3901,7 @@
         <v>10</v>
       </c>
       <c r="G77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-20</v>
       </c>
       <c r="H77" s="1">
@@ -3893,8 +3911,176 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>455.21000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78">
+        <v>1.8</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="H78" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J78">
+        <v>250</v>
+      </c>
+      <c r="K78" s="6">
+        <f t="shared" ref="K78:K83" si="31">K77+G78</f>
+        <v>471.21000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="22"/>
+        <v>-20</v>
+      </c>
+      <c r="H79" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J79">
+        <v>250</v>
+      </c>
+      <c r="K79" s="6">
+        <f t="shared" si="31"/>
+        <v>451.21000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="22"/>
+        <v>-20</v>
+      </c>
+      <c r="H80" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J80">
+        <v>250</v>
+      </c>
+      <c r="K80" s="6">
+        <f t="shared" si="31"/>
+        <v>431.21000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81">
+        <v>1.66</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="22"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="H81" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J81">
+        <v>250</v>
+      </c>
+      <c r="K81" s="6">
+        <f t="shared" si="31"/>
+        <v>451.01000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="22"/>
+        <v>-20</v>
+      </c>
+      <c r="H82" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J82">
+        <v>250</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" si="31"/>
+        <v>431.01000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <v>1.83</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="22"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H83" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J83">
+        <v>250</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" si="31"/>
+        <v>447.61000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139FF63-8BBD-4BD7-A15E-151F31D0EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C05E41-15BE-41E9-8973-E32E27F7CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:AA83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="M2" s="7" cm="1">
         <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.79044000000000025</v>
+        <v>0.7940400000000003</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -938,7 +938,7 @@
         <v>80</v>
       </c>
       <c r="U4">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="V4">
         <v>20</v>
@@ -2848,11 +2848,11 @@
       </c>
       <c r="Q41" s="2">
         <f t="shared" ref="Q41" si="20">Q40+R41</f>
-        <v>447.6099999999999</v>
+        <v>448.50999999999993</v>
       </c>
       <c r="R41">
         <f t="shared" ref="R41" si="21">SUMIF(H40:H164, O41, G40:G164)</f>
-        <v>-7.6000000000000014</v>
+        <v>-6.7000000000000028</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -4004,7 +4004,7 @@
         <v>65</v>
       </c>
       <c r="B81">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="C81">
         <v>30</v>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="22"/>
-        <v>19.799999999999997</v>
+        <v>20.699999999999996</v>
       </c>
       <c r="H81" s="1">
         <v>45311</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="K81" s="6">
         <f t="shared" si="31"/>
-        <v>451.01000000000005</v>
+        <v>451.91</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="K82" s="6">
         <f t="shared" si="31"/>
-        <v>431.01000000000005</v>
+        <v>431.91</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="K83" s="6">
         <f t="shared" si="31"/>
-        <v>447.61000000000007</v>
+        <v>448.51000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/EV Performance.xlsx
+++ b/EV Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamv\Hockey-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C05E41-15BE-41E9-8973-E32E27F7CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535DDED5-B978-455A-860D-570C19D4C057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E79C7750-3561-4567-82D9-5AF93A43DDC6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -301,6 +301,21 @@
   </si>
   <si>
     <t>Rangers ML</t>
+  </si>
+  <si>
+    <t>Bruins ML</t>
+  </si>
+  <si>
+    <t>Bulls Under 228.5</t>
+  </si>
+  <si>
+    <t>Hawks over 237.5</t>
+  </si>
+  <si>
+    <t>Spurs Under 238.5</t>
+  </si>
+  <si>
+    <t>Panthers ML</t>
   </si>
 </sst>
 </file>
@@ -688,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5287B-FFB4-4061-B2BA-F31C70F19EC3}">
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,8 +821,8 @@
         <v>235</v>
       </c>
       <c r="M2" s="7" cm="1">
-        <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K359)),K2:K359))/250)-1</f>
-        <v>0.7940400000000003</v>
+        <f t="array" ref="M2">((LOOKUP(2,1/(ISNUMBER(K2:K360)),K2:K360))/250)-1</f>
+        <v>0.76804000000000028</v>
       </c>
       <c r="O2" s="1">
         <v>45272</v>
@@ -818,9 +833,7 @@
       <c r="Q2">
         <v>250</v>
       </c>
-      <c r="AA2" s="1">
-        <v>45311</v>
-      </c>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -868,21 +881,19 @@
         <v>251.62</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R33" si="3">SUMIF(H2:H126, O3, G2:G126)</f>
+        <f>SUMIF(H2:H127, O3, G2:G127)</f>
         <v>1.6199999999999974</v>
       </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>45311</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -931,21 +942,19 @@
         <v>239.62</v>
       </c>
       <c r="R4">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H3:H128, O4, G3:G128)</f>
         <v>-12</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U4">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>45311</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -983,32 +992,30 @@
         <v>251.62</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:O33" si="4">O4+1</f>
+        <f t="shared" ref="O5:O33" si="3">O4+1</f>
         <v>45275</v>
       </c>
       <c r="P5" s="2">
         <v>250</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5:Q33" si="5">Q4+R5</f>
+        <f t="shared" ref="Q5:Q33" si="4">Q4+R5</f>
         <v>257.32</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H4:H129, O5, G4:G129)</f>
         <v>17.7</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>45311</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1046,32 +1053,30 @@
         <v>241.62</v>
       </c>
       <c r="O6" s="1">
+        <f t="shared" si="3"/>
+        <v>45276</v>
+      </c>
+      <c r="P6" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" si="4"/>
-        <v>45276</v>
-      </c>
-      <c r="P6" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="5"/>
         <v>257.32</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H5:H130, O6, G5:G130)</f>
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U6">
-        <v>20</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.91</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>45311</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1109,23 +1114,30 @@
         <v>264.62</v>
       </c>
       <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>45277</v>
+      </c>
+      <c r="P7" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="2">
         <f t="shared" si="4"/>
-        <v>45277</v>
-      </c>
-      <c r="P7" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="5"/>
         <v>257.32</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H6:H131, O7, G6:G131)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="1">
-        <v>45311</v>
-      </c>
+      <c r="T7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7">
+        <v>1.86</v>
+      </c>
+      <c r="V7">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1163,19 +1175,28 @@
         <v>254.62</v>
       </c>
       <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>45278</v>
+      </c>
+      <c r="P8" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>45278</v>
-      </c>
-      <c r="P8" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="5"/>
         <v>257.32</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H7:H132, O8, G7:G132)</f>
         <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8">
+        <v>2.25</v>
+      </c>
+      <c r="V8">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -1217,18 +1238,18 @@
         <v>239.62</v>
       </c>
       <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>45279</v>
+      </c>
+      <c r="P9" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="4"/>
-        <v>45279</v>
-      </c>
-      <c r="P9" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="5"/>
         <v>275.21999999999997</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H8:H133, O9, G8:G133)</f>
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -1268,18 +1289,18 @@
         <v>229.62</v>
       </c>
       <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>45280</v>
+      </c>
+      <c r="P10" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="4"/>
-        <v>45280</v>
-      </c>
-      <c r="P10" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="5"/>
         <v>260.21999999999997</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H9:H134, O10, G9:G134)</f>
         <v>-15</v>
       </c>
     </row>
@@ -1298,7 +1319,7 @@
         <v>#REF!</v>
       </c>
       <c r="E11" s="2" t="e">
-        <f t="shared" ref="E11:E12" si="6">(D11*B11*C11)-C11</f>
+        <f t="shared" ref="E11:E12" si="5">(D11*B11*C11)-C11</f>
         <v>#REF!</v>
       </c>
       <c r="F11" t="s">
@@ -1319,18 +1340,18 @@
         <v>252.12</v>
       </c>
       <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>45281</v>
+      </c>
+      <c r="P11" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q11" s="2">
         <f t="shared" si="4"/>
-        <v>45281</v>
-      </c>
-      <c r="P11" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="5"/>
         <v>266.71999999999997</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H10:H135, O11, G10:G135)</f>
         <v>6.5</v>
       </c>
     </row>
@@ -1349,7 +1370,7 @@
         <v>#REF!</v>
       </c>
       <c r="E12" s="2" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="F12" t="s">
@@ -1370,18 +1391,18 @@
         <v>257.32</v>
       </c>
       <c r="O12" s="1">
+        <f t="shared" si="3"/>
+        <v>45282</v>
+      </c>
+      <c r="P12" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="4"/>
-        <v>45282</v>
-      </c>
-      <c r="P12" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="5"/>
         <v>251.71999999999997</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H11:H136, O12, G11:G136)</f>
         <v>-15</v>
       </c>
     </row>
@@ -1400,7 +1421,7 @@
         <v>#REF!</v>
       </c>
       <c r="E13" s="2" t="e">
-        <f t="shared" ref="E13:E18" si="7">(D13*B13*C13)-C13</f>
+        <f t="shared" ref="E13:E18" si="6">(D13*B13*C13)-C13</f>
         <v>#REF!</v>
       </c>
       <c r="F13" t="s">
@@ -1421,18 +1442,18 @@
         <v>265.71999999999997</v>
       </c>
       <c r="O13" s="1">
+        <f t="shared" si="3"/>
+        <v>45283</v>
+      </c>
+      <c r="P13" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="4"/>
-        <v>45283</v>
-      </c>
-      <c r="P13" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="5"/>
         <v>259.11999999999995</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H12:H137, O13, G12:G137)</f>
         <v>7.3999999999999986</v>
       </c>
     </row>
@@ -1451,7 +1472,7 @@
         <v>#REF!</v>
       </c>
       <c r="E14" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="F14" t="s">
@@ -1472,18 +1493,18 @@
         <v>280.71999999999997</v>
       </c>
       <c r="O14" s="1">
+        <f t="shared" si="3"/>
+        <v>45284</v>
+      </c>
+      <c r="P14" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="4"/>
-        <v>45284</v>
-      </c>
-      <c r="P14" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="5"/>
         <v>259.11999999999995</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H13:H138, O14, G13:G138)</f>
         <v>0</v>
       </c>
     </row>
@@ -1502,7 +1523,7 @@
         <v>#REF!</v>
       </c>
       <c r="E15" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="F15" t="s">
@@ -1523,18 +1544,18 @@
         <v>295.21999999999997</v>
       </c>
       <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>45285</v>
+      </c>
+      <c r="P15" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="4"/>
-        <v>45285</v>
-      </c>
-      <c r="P15" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="5"/>
         <v>259.11999999999995</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H14:H139, O15, G14:G139)</f>
         <v>0</v>
       </c>
     </row>
@@ -1553,7 +1574,7 @@
         <v>#REF!</v>
       </c>
       <c r="E16" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="F16" t="s">
@@ -1574,18 +1595,18 @@
         <v>285.21999999999997</v>
       </c>
       <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>45286</v>
+      </c>
+      <c r="P16" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="4"/>
-        <v>45286</v>
-      </c>
-      <c r="P16" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="5"/>
         <v>259.11999999999995</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H15:H140, O16, G15:G140)</f>
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1625,7 @@
         <v>#REF!</v>
       </c>
       <c r="E17" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="F17" t="s">
@@ -1625,18 +1646,18 @@
         <v>275.21999999999997</v>
       </c>
       <c r="O17" s="1">
+        <f t="shared" si="3"/>
+        <v>45287</v>
+      </c>
+      <c r="P17" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="4"/>
-        <v>45287</v>
-      </c>
-      <c r="P17" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="5"/>
         <v>271.71999999999997</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H16:H141, O17, G16:G141)</f>
         <v>12.600000000000001</v>
       </c>
     </row>
@@ -1655,7 +1676,7 @@
         <v>#REF!</v>
       </c>
       <c r="E18" s="2" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="F18" t="s">
@@ -1676,18 +1697,18 @@
         <v>260.21999999999997</v>
       </c>
       <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>45288</v>
+      </c>
+      <c r="P18" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="4"/>
-        <v>45288</v>
-      </c>
-      <c r="P18" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="5"/>
         <v>271.71999999999997</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H17:H142, O18, G17:G142)</f>
         <v>0</v>
       </c>
     </row>
@@ -1706,7 +1727,7 @@
         <v>#REF!</v>
       </c>
       <c r="E19" s="2" t="e">
-        <f t="shared" ref="E19:E20" si="8">(D19*B19*C19)-C19</f>
+        <f t="shared" ref="E19:E20" si="7">(D19*B19*C19)-C19</f>
         <v>#REF!</v>
       </c>
       <c r="F19" t="s">
@@ -1727,18 +1748,18 @@
         <v>276.71999999999997</v>
       </c>
       <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>45289</v>
+      </c>
+      <c r="P19" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" si="4"/>
-        <v>45289</v>
-      </c>
-      <c r="P19" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="5"/>
         <v>297.11999999999995</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H18:H143, O19, G18:G143)</f>
         <v>25.4</v>
       </c>
     </row>
@@ -1757,7 +1778,7 @@
         <v>#REF!</v>
       </c>
       <c r="E20" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="F20" t="s">
@@ -1778,18 +1799,18 @@
         <v>266.71999999999997</v>
       </c>
       <c r="O20" s="1">
+        <f t="shared" si="3"/>
+        <v>45290</v>
+      </c>
+      <c r="P20" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="4"/>
-        <v>45290</v>
-      </c>
-      <c r="P20" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H19:H144, O20, G19:G144)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1808,7 +1829,7 @@
         <v>#REF!</v>
       </c>
       <c r="E21" s="2" t="e">
-        <f t="shared" ref="E21:E42" si="9">(D21*B21*C21)-C21</f>
+        <f t="shared" ref="E21:E42" si="8">(D21*B21*C21)-C21</f>
         <v>#REF!</v>
       </c>
       <c r="F21" t="s">
@@ -1829,18 +1850,18 @@
         <v>251.71999999999997</v>
       </c>
       <c r="O21" s="1">
+        <f t="shared" si="3"/>
+        <v>45291</v>
+      </c>
+      <c r="P21" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="4"/>
-        <v>45291</v>
-      </c>
-      <c r="P21" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H20:H145, O21, G20:G145)</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1880,7 @@
         <v>#REF!</v>
       </c>
       <c r="E22" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F22" t="s">
@@ -1880,18 +1901,18 @@
         <v>241.71999999999997</v>
       </c>
       <c r="O22" s="1">
+        <f t="shared" si="3"/>
+        <v>45292</v>
+      </c>
+      <c r="P22" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="4"/>
-        <v>45292</v>
-      </c>
-      <c r="P22" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H21:H146, O22, G21:G146)</f>
         <v>0</v>
       </c>
     </row>
@@ -1910,7 +1931,7 @@
         <v>#REF!</v>
       </c>
       <c r="E23" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F23" t="s">
@@ -1931,18 +1952,18 @@
         <v>253.11999999999998</v>
       </c>
       <c r="O23" s="1">
+        <f t="shared" si="3"/>
+        <v>45293</v>
+      </c>
+      <c r="P23" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="4"/>
-        <v>45293</v>
-      </c>
-      <c r="P23" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R23">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H22:H147, O23, G22:G147)</f>
         <v>0</v>
       </c>
     </row>
@@ -1961,7 +1982,7 @@
         <v>#REF!</v>
       </c>
       <c r="E24" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F24" t="s">
@@ -1982,18 +2003,18 @@
         <v>259.12</v>
       </c>
       <c r="O24" s="1">
+        <f t="shared" si="3"/>
+        <v>45294</v>
+      </c>
+      <c r="P24" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="4"/>
-        <v>45294</v>
-      </c>
-      <c r="P24" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q24" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R24">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H23:H148, O24, G23:G148)</f>
         <v>0</v>
       </c>
     </row>
@@ -2012,7 +2033,7 @@
         <v>#REF!</v>
       </c>
       <c r="E25" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F25" t="s">
@@ -2033,18 +2054,18 @@
         <v>249.12</v>
       </c>
       <c r="O25" s="1">
+        <f t="shared" si="3"/>
+        <v>45295</v>
+      </c>
+      <c r="P25" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" si="4"/>
-        <v>45295</v>
-      </c>
-      <c r="P25" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H24:H149, O25, G24:G149)</f>
         <v>0</v>
       </c>
     </row>
@@ -2063,7 +2084,7 @@
         <v>#REF!</v>
       </c>
       <c r="E26" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F26" t="s">
@@ -2084,18 +2105,18 @@
         <v>264.62</v>
       </c>
       <c r="O26" s="1">
+        <f t="shared" si="3"/>
+        <v>45296</v>
+      </c>
+      <c r="P26" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q26" s="2">
         <f t="shared" si="4"/>
-        <v>45296</v>
-      </c>
-      <c r="P26" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q26" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H25:H150, O26, G25:G150)</f>
         <v>0</v>
       </c>
     </row>
@@ -2114,7 +2135,7 @@
         <v>#REF!</v>
       </c>
       <c r="E27" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F27" t="s">
@@ -2135,18 +2156,18 @@
         <v>271.72000000000003</v>
       </c>
       <c r="O27" s="1">
+        <f t="shared" si="3"/>
+        <v>45297</v>
+      </c>
+      <c r="P27" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="4"/>
-        <v>45297</v>
-      </c>
-      <c r="P27" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R27">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H26:H151, O27, G26:G151)</f>
         <v>0</v>
       </c>
     </row>
@@ -2165,7 +2186,7 @@
         <v>#REF!</v>
       </c>
       <c r="E28" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F28" t="s">
@@ -2186,18 +2207,18 @@
         <v>286.72000000000003</v>
       </c>
       <c r="O28" s="1">
+        <f t="shared" si="3"/>
+        <v>45298</v>
+      </c>
+      <c r="P28" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="4"/>
-        <v>45298</v>
-      </c>
-      <c r="P28" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="5"/>
         <v>297.61999999999995</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H27:H152, O28, G27:G152)</f>
         <v>0</v>
       </c>
     </row>
@@ -2216,7 +2237,7 @@
         <v>#REF!</v>
       </c>
       <c r="E29" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F29" t="s">
@@ -2237,18 +2258,18 @@
         <v>266.72000000000003</v>
       </c>
       <c r="O29" s="1">
+        <f t="shared" si="3"/>
+        <v>45299</v>
+      </c>
+      <c r="P29" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q29" s="2">
         <f t="shared" si="4"/>
-        <v>45299</v>
-      </c>
-      <c r="P29" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="5"/>
         <v>307.36999999999995</v>
       </c>
       <c r="R29">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H28:H153, O29, G28:G153)</f>
         <v>9.75</v>
       </c>
     </row>
@@ -2267,7 +2288,7 @@
         <v>#REF!</v>
       </c>
       <c r="E30" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F30" t="s">
@@ -2288,18 +2309,18 @@
         <v>279.92</v>
       </c>
       <c r="O30" s="1">
+        <f t="shared" si="3"/>
+        <v>45300</v>
+      </c>
+      <c r="P30" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q30" s="2">
         <f t="shared" si="4"/>
-        <v>45300</v>
-      </c>
-      <c r="P30" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="5"/>
         <v>341.91999999999996</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H29:H154, O30, G29:G154)</f>
         <v>34.549999999999997</v>
       </c>
     </row>
@@ -2318,7 +2339,7 @@
         <v>#REF!</v>
       </c>
       <c r="E31" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F31" t="s">
@@ -2339,18 +2360,18 @@
         <v>297.12</v>
       </c>
       <c r="O31" s="1">
+        <f t="shared" si="3"/>
+        <v>45301</v>
+      </c>
+      <c r="P31" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="2">
         <f t="shared" si="4"/>
-        <v>45301</v>
-      </c>
-      <c r="P31" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="5"/>
         <v>341.91999999999996</v>
       </c>
       <c r="R31">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H30:H155, O31, G30:G155)</f>
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2390,7 @@
         <v>#REF!</v>
       </c>
       <c r="E32" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F32" t="s">
@@ -2390,18 +2411,18 @@
         <v>302.62</v>
       </c>
       <c r="O32" s="1">
+        <f t="shared" si="3"/>
+        <v>45302</v>
+      </c>
+      <c r="P32" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q32" s="2">
         <f t="shared" si="4"/>
-        <v>45302</v>
-      </c>
-      <c r="P32" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q32" s="2">
-        <f t="shared" si="5"/>
         <v>354.06999999999994</v>
       </c>
       <c r="R32">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H31:H156, O32, G31:G156)</f>
         <v>12.150000000000002</v>
       </c>
     </row>
@@ -2420,7 +2441,7 @@
         <v>#REF!</v>
       </c>
       <c r="E33" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F33" t="s">
@@ -2441,18 +2462,18 @@
         <v>317.62</v>
       </c>
       <c r="O33" s="1">
+        <f t="shared" si="3"/>
+        <v>45303</v>
+      </c>
+      <c r="P33" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q33" s="2">
         <f t="shared" si="4"/>
-        <v>45303</v>
-      </c>
-      <c r="P33" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="5"/>
         <v>339.06999999999994</v>
       </c>
       <c r="R33">
-        <f t="shared" si="3"/>
+        <f>SUMIF(H32:H157, O33, G32:G157)</f>
         <v>-15</v>
       </c>
     </row>
@@ -2471,7 +2492,7 @@
         <v>#REF!</v>
       </c>
       <c r="E34" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F34" t="s">
@@ -2498,11 +2519,11 @@
         <v>250</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" ref="Q34" si="10">Q33+R34</f>
+        <f t="shared" ref="Q34" si="9">Q33+R34</f>
         <v>415.86999999999995</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34" si="11">SUMIF(H33:H157, O34, G33:G157)</f>
+        <f>SUMIF(H33:H158, O34, G33:G158)</f>
         <v>76.8</v>
       </c>
     </row>
@@ -2521,7 +2542,7 @@
         <v>#REF!</v>
       </c>
       <c r="E35" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F35" t="s">
@@ -2548,11 +2569,11 @@
         <v>250</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35" si="12">Q34+R35</f>
+        <f t="shared" ref="Q35" si="10">Q34+R35</f>
         <v>441.36999999999995</v>
       </c>
       <c r="R35">
-        <f t="shared" ref="R35" si="13">SUMIF(H34:H158, O35, G34:G158)</f>
+        <f>SUMIF(H34:H159, O35, G34:G159)</f>
         <v>25.5</v>
       </c>
     </row>
@@ -2571,7 +2592,7 @@
         <v>#REF!</v>
       </c>
       <c r="E36" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F36" t="s">
@@ -2598,11 +2619,11 @@
         <v>250</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" ref="Q36" si="14">Q35+R36</f>
+        <f t="shared" ref="Q36" si="11">Q35+R36</f>
         <v>391.36999999999995</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36" si="15">SUMIF(H35:H159, O36, G35:G159)</f>
+        <f>SUMIF(H35:H160, O36, G35:G160)</f>
         <v>-50</v>
       </c>
     </row>
@@ -2621,7 +2642,7 @@
         <v>#REF!</v>
       </c>
       <c r="E37" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F37" t="s">
@@ -2648,11 +2669,11 @@
         <v>250</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" ref="Q37:Q39" si="16">Q36+R37</f>
+        <f t="shared" ref="Q37:Q39" si="12">Q36+R37</f>
         <v>458.00999999999993</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:R39" si="17">SUMIF(H36:H160, O37, G36:G160)</f>
+        <f>SUMIF(H36:H161, O37, G36:G161)</f>
         <v>66.639999999999986</v>
       </c>
     </row>
@@ -2671,7 +2692,7 @@
         <v>#REF!</v>
       </c>
       <c r="E38" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F38" t="s">
@@ -2698,11 +2719,11 @@
         <v>250</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>458.00999999999993</v>
       </c>
       <c r="R38">
-        <f t="shared" si="17"/>
+        <f>SUMIF(H37:H162, O38, G37:G162)</f>
         <v>0</v>
       </c>
     </row>
@@ -2721,7 +2742,7 @@
         <v>#REF!</v>
       </c>
       <c r="E39" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F39" t="s">
@@ -2748,11 +2769,11 @@
         <v>250</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>495.20999999999992</v>
       </c>
       <c r="R39">
-        <f t="shared" si="17"/>
+        <f>SUMIF(H38:H163, O39, G38:G163)</f>
         <v>37.200000000000003</v>
       </c>
     </row>
@@ -2771,7 +2792,7 @@
         <v>#REF!</v>
       </c>
       <c r="E40" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F40" t="s">
@@ -2798,11 +2819,11 @@
         <v>251</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" ref="Q40" si="18">Q39+R40</f>
+        <f t="shared" ref="Q40" si="13">Q39+R40</f>
         <v>455.20999999999992</v>
       </c>
       <c r="R40">
-        <f t="shared" ref="R40" si="19">SUMIF(H39:H163, O40, G39:G163)</f>
+        <f>SUMIF(H39:H164, O40, G39:G164)</f>
         <v>-40</v>
       </c>
     </row>
@@ -2821,7 +2842,7 @@
         <v>#REF!</v>
       </c>
       <c r="E41" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F41" t="s">
@@ -2847,11 +2868,11 @@
         <v>251</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" ref="Q41" si="20">Q40+R41</f>
+        <f t="shared" ref="Q41" si="14">Q40+R41</f>
         <v>448.50999999999993</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41" si="21">SUMIF(H40:H164, O41, G40:G164)</f>
+        <f>SUMIF(H40:H165, O41, G40:G165)</f>
         <v>-6.7000000000000028</v>
       </c>
     </row>
@@ -2870,14 +2891,14 @@
         <v>#REF!</v>
       </c>
       <c r="E42" s="2" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G83" si="22">IF(F42="Y",(C42*B42)-C42,-C42)</f>
+        <f t="shared" ref="G42:G87" si="15">IF(F42="Y",(C42*B42)-C42,-C42)</f>
         <v>6.25</v>
       </c>
       <c r="H42" s="1">
@@ -2890,9 +2911,20 @@
         <f t="shared" si="2"/>
         <v>341.92</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="O42" s="1">
+        <v>45312</v>
+      </c>
+      <c r="P42" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" ref="Q42" si="16">Q41+R42</f>
+        <v>422.00999999999993</v>
+      </c>
+      <c r="R42">
+        <f>SUMIF(H41:H166, O42, G41:G166)</f>
+        <v>-26.5</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -2910,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-10</v>
       </c>
       <c r="H43" s="1">
@@ -2920,7 +2952,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="23">K42+G43</f>
+        <f t="shared" ref="K43" si="17">K42+G43</f>
         <v>331.92</v>
       </c>
       <c r="O43" s="1"/>
@@ -2943,7 +2975,7 @@
         <v>16</v>
       </c>
       <c r="G44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="H44" s="1">
@@ -2953,7 +2985,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="24">K43+G44</f>
+        <f t="shared" ref="K44" si="18">K43+G44</f>
         <v>341.92</v>
       </c>
       <c r="O44" s="1"/>
@@ -2976,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="G45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>21.75</v>
       </c>
       <c r="H45" s="1">
@@ -2986,7 +3018,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45:K51" si="25">K44+G45</f>
+        <f t="shared" ref="K45:K51" si="19">K44+G45</f>
         <v>363.67</v>
       </c>
       <c r="O45" s="1"/>
@@ -3009,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-15</v>
       </c>
       <c r="H46" s="1">
@@ -3019,7 +3051,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>348.67</v>
       </c>
       <c r="O46" s="1"/>
@@ -3042,7 +3074,7 @@
         <v>16</v>
       </c>
       <c r="G47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="H47" s="1">
@@ -3052,7 +3084,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>360.67</v>
       </c>
       <c r="O47" s="1"/>
@@ -3075,7 +3107,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>12.900000000000002</v>
       </c>
       <c r="H48" s="1">
@@ -3085,7 +3117,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>373.57</v>
       </c>
       <c r="O48" s="1"/>
@@ -3106,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="G49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-15</v>
       </c>
       <c r="H49" s="1">
@@ -3116,7 +3148,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>358.57</v>
       </c>
       <c r="O49" s="1"/>
@@ -3137,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="G50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>10.5</v>
       </c>
       <c r="H50" s="1">
@@ -3147,7 +3179,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>369.07</v>
       </c>
       <c r="O50" s="1"/>
@@ -3168,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="G51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-15</v>
       </c>
       <c r="H51" s="1">
@@ -3178,7 +3210,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>354.07</v>
       </c>
       <c r="O51" s="1"/>
@@ -3199,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="G52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-15</v>
       </c>
       <c r="H52" s="1">
@@ -3209,7 +3241,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:K59" si="26">K51+G52</f>
+        <f t="shared" ref="K52:K59" si="20">K51+G52</f>
         <v>339.07</v>
       </c>
       <c r="O52" s="1"/>
@@ -3230,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="G53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-15</v>
       </c>
       <c r="H53" s="1">
@@ -3240,7 +3272,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>324.07</v>
       </c>
     </row>
@@ -3258,7 +3290,7 @@
         <v>16</v>
       </c>
       <c r="G54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="H54" s="1">
@@ -3268,7 +3300,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>348.07</v>
       </c>
     </row>
@@ -3286,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="G55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>13.5</v>
       </c>
       <c r="H55" s="1">
@@ -3296,7 +3328,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>361.57</v>
       </c>
     </row>
@@ -3314,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="G56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="H56" s="1">
@@ -3324,7 +3356,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>379.57</v>
       </c>
     </row>
@@ -3342,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="G57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="H57" s="1">
@@ -3352,7 +3384,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>394.57</v>
       </c>
     </row>
@@ -3370,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>21.299999999999997</v>
       </c>
       <c r="H58" s="1">
@@ -3380,7 +3412,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>415.87</v>
       </c>
     </row>
@@ -3398,7 +3430,7 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>25.5</v>
       </c>
       <c r="H59" s="1">
@@ -3408,7 +3440,7 @@
         <v>250</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3435,7 +3467,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" ref="K60:K64" si="27">K59+G60</f>
+        <f t="shared" ref="K60:K64" si="21">K59+G60</f>
         <v>441.37</v>
       </c>
     </row>
@@ -3453,7 +3485,7 @@
         <v>16</v>
       </c>
       <c r="G61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="H61" s="1">
@@ -3463,7 +3495,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>461.37</v>
       </c>
     </row>
@@ -3481,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="G62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H62" s="1">
@@ -3491,7 +3523,7 @@
         <v>250</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>441.37</v>
       </c>
     </row>
@@ -3509,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="G63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H63" s="1">
@@ -3519,7 +3551,7 @@
         <v>250</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>421.37</v>
       </c>
     </row>
@@ -3537,7 +3569,7 @@
         <v>10</v>
       </c>
       <c r="G64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-30</v>
       </c>
       <c r="H64" s="1">
@@ -3547,7 +3579,7 @@
         <v>250</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>391.37</v>
       </c>
     </row>
@@ -3565,7 +3597,7 @@
         <v>16</v>
       </c>
       <c r="G65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>13.799999999999997</v>
       </c>
       <c r="H65" s="1">
@@ -3575,7 +3607,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" ref="K65:K70" si="28">K64+G65</f>
+        <f t="shared" ref="K65:K70" si="22">K64+G65</f>
         <v>405.17</v>
       </c>
     </row>
@@ -3593,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="G66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>7.6000000000000014</v>
       </c>
       <c r="H66" s="1">
@@ -3603,7 +3635,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>412.77000000000004</v>
       </c>
     </row>
@@ -3621,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="G67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>7.3999999999999986</v>
       </c>
       <c r="H67" s="1">
@@ -3631,7 +3663,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>420.17</v>
       </c>
     </row>
@@ -3649,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>41.239999999999995</v>
       </c>
       <c r="H68" s="1">
@@ -3659,7 +3691,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>461.41</v>
       </c>
     </row>
@@ -3677,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="G69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H69" s="1">
@@ -3687,7 +3719,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>441.41</v>
       </c>
     </row>
@@ -3705,7 +3737,7 @@
         <v>16</v>
       </c>
       <c r="G70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H70" s="1">
@@ -3715,7 +3747,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>458.01000000000005</v>
       </c>
     </row>
@@ -3733,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="G71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>15.399999999999999</v>
       </c>
       <c r="H71" s="1">
@@ -3743,7 +3775,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" ref="K71:K75" si="29">K70+G71</f>
+        <f t="shared" ref="K71:K75" si="23">K70+G71</f>
         <v>473.41</v>
       </c>
     </row>
@@ -3761,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="G72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-30</v>
       </c>
       <c r="H72" s="1">
@@ -3771,7 +3803,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>443.41</v>
       </c>
     </row>
@@ -3789,7 +3821,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H73" s="1">
@@ -3799,7 +3831,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>460.01000000000005</v>
       </c>
     </row>
@@ -3817,7 +3849,7 @@
         <v>16</v>
       </c>
       <c r="G74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>15.200000000000003</v>
       </c>
       <c r="H74" s="1">
@@ -3827,7 +3859,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3845,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="G75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="H75" s="1">
@@ -3855,7 +3887,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>495.21000000000004</v>
       </c>
     </row>
@@ -3873,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="G76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H76" s="1">
@@ -3883,7 +3915,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" ref="K76:K77" si="30">K75+G76</f>
+        <f t="shared" ref="K76:K77" si="24">K75+G76</f>
         <v>475.21000000000004</v>
       </c>
     </row>
@@ -3901,7 +3933,7 @@
         <v>10</v>
       </c>
       <c r="G77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H77" s="1">
@@ -3911,7 +3943,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>455.21000000000004</v>
       </c>
     </row>
@@ -3929,7 +3961,7 @@
         <v>16</v>
       </c>
       <c r="G78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="H78" s="1">
@@ -3939,7 +3971,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="6">
-        <f t="shared" ref="K78:K83" si="31">K77+G78</f>
+        <f t="shared" ref="K78:K83" si="25">K77+G78</f>
         <v>471.21000000000004</v>
       </c>
     </row>
@@ -3957,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="G79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H79" s="1">
@@ -3967,7 +3999,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>451.21000000000004</v>
       </c>
     </row>
@@ -3985,7 +4017,7 @@
         <v>10</v>
       </c>
       <c r="G80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H80" s="1">
@@ -3995,7 +4027,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>431.21000000000004</v>
       </c>
     </row>
@@ -4013,7 +4045,7 @@
         <v>16</v>
       </c>
       <c r="G81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>20.699999999999996</v>
       </c>
       <c r="H81" s="1">
@@ -4023,7 +4055,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>451.91</v>
       </c>
     </row>
@@ -4041,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="G82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>-20</v>
       </c>
       <c r="H82" s="1">
@@ -4051,7 +4083,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>431.91</v>
       </c>
     </row>
@@ -4069,7 +4101,7 @@
         <v>16</v>
       </c>
       <c r="G83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H83" s="1">
@@ -4079,8 +4111,120 @@
         <v>250</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>448.51000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84">
+        <v>1.9</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>45312</v>
+      </c>
+      <c r="J84">
+        <v>250</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" ref="K84" si="26">K83+G84</f>
+        <v>453.01000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>1.91</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <f>IF(F85="Y",(C85*B85)-C85,-C85)</f>
+        <v>-20</v>
+      </c>
+      <c r="H85" s="1">
+        <v>45312</v>
+      </c>
+      <c r="J85">
+        <v>250</v>
+      </c>
+      <c r="K85" s="6">
+        <f>K87+G85</f>
+        <v>422.01000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <v>1.45</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="H86" s="1">
+        <v>45312</v>
+      </c>
+      <c r="J86">
+        <v>250</v>
+      </c>
+      <c r="K86" s="6">
+        <f>K84+G86</f>
+        <v>462.01000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="15"/>
+        <v>-20</v>
+      </c>
+      <c r="H87" s="1">
+        <v>45312</v>
+      </c>
+      <c r="J87">
+        <v>250</v>
+      </c>
+      <c r="K87" s="6">
+        <f>K86+G87</f>
+        <v>442.01000000000005</v>
       </c>
     </row>
   </sheetData>
